--- a/trunk/tr-semanticsearchsurvey-data/overviews.xlsx
+++ b/trunk/tr-semanticsearchsurvey-data/overviews.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="6720" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="6720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>Term</t>
   </si>
@@ -67,6 +69,189 @@
   </si>
   <si>
     <t>BM25F, structured LM, edge-specific relevance model, triple-based LM</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Facet</t>
+  </si>
+  <si>
+    <t>Iterative</t>
+  </si>
+  <si>
+    <t>Querying</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Semantic Data</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Lexical</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Inference</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Centrality</t>
+  </si>
+  <si>
+    <t>Proximity</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>NCBO</t>
+  </si>
+  <si>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>E.Cube</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Concept-based Document Retrieval</t>
+  </si>
+  <si>
+    <t>Annotation-based Document Retrieval</t>
+  </si>
+  <si>
+    <t>Entity Search</t>
+  </si>
+  <si>
+    <t>Relational Keyword Search</t>
+  </si>
+  <si>
+    <t>Relational NL Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword </t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>\cite{DBLP:conf/sigir/Giger88, DBLP:conf/esws/GiunchigliaKZ09, DBLP:conf/sigir/QiuF93, DBLP:conf/trec/TrieschniggKS06, DBLP:conf/trec/TrieschniggKS06, DBLP:conf/trec/ZhouYTS06,  DBLP:journals/ws/JonquetLFCNMS11, DBLP:conf/trec/JelierSEWMSMK03, DBLP:conf/sigir/Voorhees93, DBLP:conf/sigir/Voorhees94, DBLP:journals/ipm/MeijTRK10}</t>
+  </si>
+  <si>
+    <t>\cite{DBLP:conf/sigir/Chu-CarrollPCFD06, DBLP:journals/tkde/CastellsFV07, DBLP:journals/ws/FernandezCLVCM11, tran2007expressive, DBLP:conf/cikm/Chu-CarrollP07}</t>
+  </si>
+  <si>
+    <t>\cite{DBLP:journals/tkde/CastellsFV07, DBLP:conf/sigmod/KandoganKRVZ06, tran2007expressive, DBLP:conf/aaai/JiangT06, DBLP:series/sci/NgoC10, DBLP:conf/www/RochaSA04, DBLP:conf/esws/SchumacherSS08, DBLP:conf/www/GuhaMM03}</t>
+  </si>
+  <si>
+    <t>\cite{DBLP:journals/tois/BalogBR11, DBLP:conf/cikm/KapteinSVK10, DBLP:conf/cikm/BronBR10, DBLP:conf/ecir/PehcevskiVT08}</t>
+  </si>
+  <si>
+    <t>\cite{DBLP:conf/vldb/BalminHP04, DBLP:conf/sigir/BastCSW07, DBLP:conf/semweb/BlancoMV11, DBLP:journals/ijswis/ChengQ09, DBLP:journals/ws/TummarelloCCDDD10, DBLP:conf/eswc/Tran12,DBLP:conf/www/NieMSWM07, DBLP:conf/www/NieZWM05}</t>
+  </si>
+  <si>
+    <t>\cite{DBLP:journals/ipm/BalogAR09, DBLP:conf/cikm/KapteinSVK10, DBLP:conf/sigir/Chu-CarrollPCFD06}</t>
+  </si>
+  <si>
+    <t>\cite{DBLP:conf/vldb/BalminHP04, DBLP:conf/cikm/BicerTN11, DBLP:conf/cikm/CoffmanW11, DBLP:journals/debu/ElbassuoniRSW10, DBLP:journals/ws/TranWH09, DBLP:journals/ws/TranHL11, DBLP:conf/icde/KasneciSIRW08, DBLP:conf/sigmod/LiJLF09, DBLP:conf/cikm/LadwigT11}</t>
+  </si>
+  <si>
+    <t>\cite{DBLP:conf/aswc/CaoCT08, DBLP:journals/dke/CimianoHHMS08, DBLP:conf/esws/WangXZY07, DBLP:conf/esws/DamljanovicAC10, DBLP:journals/ws/LopezUMP07}</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Sem. Model</t>
+  </si>
+  <si>
+    <t>Content Int.</t>
+  </si>
+  <si>
+    <t>Query Int.</t>
+  </si>
+  <si>
+    <t>Sem. Data</t>
+  </si>
+  <si>
+    <t>TAST.</t>
+  </si>
+  <si>
+    <t>Yah.!</t>
+  </si>
+  <si>
+    <t>C-S.</t>
+  </si>
+  <si>
+    <t>Falc.</t>
+  </si>
+  <si>
+    <t>Sig.</t>
+  </si>
+  <si>
+    <t>S.Pro</t>
+  </si>
+  <si>
+    <t>Aqua.</t>
+  </si>
+  <si>
+    <t>Aqua*</t>
+  </si>
+  <si>
+    <t>Rel. NL</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Nalix</t>
+  </si>
+  <si>
+    <t>Rel. Keyword</t>
   </si>
 </sst>
 </file>
@@ -153,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,6 +366,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -582,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -611,4 +828,818 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="5" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/tr-semanticsearchsurvey-data/overviews.xlsx
+++ b/trunk/tr-semanticsearchsurvey-data/overviews.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
   <si>
     <t>Term</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Naga</t>
   </si>
   <si>
-    <t>E.Cube</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -161,12 +158,6 @@
     <t>Entity Search</t>
   </si>
   <si>
-    <t>Relational Keyword Search</t>
-  </si>
-  <si>
-    <t>Relational NL Search</t>
-  </si>
-  <si>
     <t xml:space="preserve">Keyword </t>
   </si>
   <si>
@@ -203,55 +194,58 @@
     <t>?</t>
   </si>
   <si>
-    <t>Avatar</t>
-  </si>
-  <si>
     <t>Sem. Model</t>
   </si>
   <si>
-    <t>Content Int.</t>
-  </si>
-  <si>
-    <t>Query Int.</t>
-  </si>
-  <si>
     <t>Sem. Data</t>
   </si>
   <si>
     <t>TAST.</t>
   </si>
   <si>
-    <t>Yah.!</t>
-  </si>
-  <si>
-    <t>C-S.</t>
-  </si>
-  <si>
-    <t>Falc.</t>
-  </si>
-  <si>
     <t>Sig.</t>
   </si>
   <si>
     <t>S.Pro</t>
   </si>
   <si>
-    <t>Aqua.</t>
-  </si>
-  <si>
-    <t>Aqua*</t>
-  </si>
-  <si>
     <t>Rel. NL</t>
   </si>
   <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Nalix</t>
-  </si>
-  <si>
     <t>Rel. Keyword</t>
+  </si>
+  <si>
+    <t>Hak</t>
+  </si>
+  <si>
+    <t>Relational</t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Interpret.</t>
+  </si>
+  <si>
+    <t>Wolf.</t>
+  </si>
+  <si>
+    <t>Aqu.</t>
+  </si>
+  <si>
+    <t>Y!</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t>J!</t>
   </si>
 </sst>
 </file>
@@ -283,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -334,11 +328,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,38 +386,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -832,717 +862,758 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="5" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="16"/>
+    <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="I2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="J2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="L2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="C3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="C8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="C9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="C10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="B11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="C12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="C13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="A18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="A22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="B23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="C24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H1:K1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1551,7 +1622,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,78 +1637,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11" t="s">
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="D3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/tr-semanticsearchsurvey-data/overviews.xlsx
+++ b/trunk/tr-semanticsearchsurvey-data/overviews.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
   <si>
     <t>Term</t>
   </si>
@@ -140,9 +140,6 @@
     <t>NCBO</t>
   </si>
   <si>
-    <t>Naga</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -191,24 +188,15 @@
     <t>Annotation</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Sem. Model</t>
   </si>
   <si>
     <t>Sem. Data</t>
   </si>
   <si>
-    <t>TAST.</t>
-  </si>
-  <si>
     <t>Sig.</t>
   </si>
   <si>
-    <t>S.Pro</t>
-  </si>
-  <si>
     <t>Rel. NL</t>
   </si>
   <si>
@@ -227,15 +215,6 @@
     <t>PS</t>
   </si>
   <si>
-    <t>Interpret.</t>
-  </si>
-  <si>
-    <t>Wolf.</t>
-  </si>
-  <si>
-    <t>Aqu.</t>
-  </si>
-  <si>
     <t>Y!</t>
   </si>
   <si>
@@ -246,6 +225,27 @@
   </si>
   <si>
     <t>J!</t>
+  </si>
+  <si>
+    <t>SPro</t>
+  </si>
+  <si>
+    <t>Data Int.</t>
+  </si>
+  <si>
+    <t>Query Int.</t>
+  </si>
+  <si>
+    <t>TAST</t>
+  </si>
+  <si>
+    <t>NaL</t>
+  </si>
+  <si>
+    <t>WolfA</t>
+  </si>
+  <si>
+    <t>TrueK</t>
   </si>
 </sst>
 </file>
@@ -277,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -354,11 +354,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,23 +487,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -418,16 +508,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -862,18 +1001,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="P27" sqref="A1:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="13" customWidth="1"/>
@@ -881,736 +1019,944 @@
     <col min="10" max="10" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="17" t="s">
+      <c r="B13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="15" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16" t="s">
+      <c r="B18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B21" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="16" t="s">
+      <c r="C21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="16" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="16" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="16" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="C27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H1:K1"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1637,71 +1983,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="25"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
